--- a/simulations/synthetic_data_10.xlsx
+++ b/simulations/synthetic_data_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>XXBO</t>
+          <t>XXCK</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Prof AG</t>
+          <t>Prof T</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>XXN</t>
+          <t>XXLO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof AD</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -531,16 +531,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>XXAT</t>
+          <t>XXIG</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -556,12 +556,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>XXAN</t>
+          <t>XXFE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Prof AI</t>
+          <t>Prof AA</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -581,16 +581,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>XXW</t>
+          <t>XXBY</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Prof AW</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -606,12 +606,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>XXBA</t>
+          <t>XXM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Prof AT, Prof AQ, Prof D, Prof A</t>
+          <t>Prof I, Prof N, Prof E, Prof C</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
@@ -626,23 +626,23 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sec B</t>
+          <t>Sec A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>XXBY</t>
+          <t>XXPZ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Prof AB</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>4</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+          <t>Prof X, Prof A, Prof D, Prof AD</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
       <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>XXAM</t>
+          <t>XXJA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
+          <t>Prof AC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -681,16 +681,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>XXK</t>
+          <t>XXMI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Prof AU</t>
+          <t>Prof W</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -706,16 +706,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>XXAE</t>
+          <t>XXK</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Prof AG</t>
+          <t>Prof B</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -731,16 +731,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>XXB</t>
+          <t>XXDN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Prof P</t>
+          <t>Prof D</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -756,18 +756,18 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>XXCH</t>
+          <t>XXPR</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Prof AJ, Prof H, Prof AS, Prof B</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof L</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -776,23 +776,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>XXAH</t>
+          <t>XXEI</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Prof T</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
+          <t>Prof D, Prof AB, Prof P, Prof H</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
       <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -801,23 +801,23 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sec C</t>
+          <t>Sec B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>XXAB</t>
+          <t>XXL</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Prof W</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>Prof T, Prof X, Prof D, Prof P</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -831,16 +831,16 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>XXH</t>
+          <t>XXHP</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Prof AW</t>
+          <t>Prof AC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -856,16 +856,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XXBT</t>
+          <t>XXAT</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Prof AR</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -881,12 +881,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>XXBI</t>
+          <t>XXIE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Prof AR</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -906,18 +906,18 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>XXAC</t>
+          <t>XXFF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Prof Q, Prof AG, Prof AF, Prof AW</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof Z</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -926,21 +926,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>XXAZ</t>
+          <t>XXHT</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Prof AN</t>
+          <t>Prof D</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -951,23 +951,23 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>XXL</t>
+          <t>XXCD</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Prof C</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>Prof C, Prof X, Prof G, Prof N</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
       <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -976,23 +976,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sec D</t>
+          <t>Sec C</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>XXJ</t>
+          <t>XXMY</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Prof AU</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>Prof H, Prof E, Prof P, Prof F</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>2</v>
+      </c>
       <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1006,16 +1006,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>XXAS</t>
+          <t>XXH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Prof AC</t>
+          <t>Prof R</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1031,16 +1031,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>XXBH</t>
+          <t>XXJY</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Prof AA</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
@@ -1056,18 +1056,18 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>XXAY</t>
+          <t>XXNU</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Prof Y, Prof AM, Prof O, Prof AR</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof W</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>XXM</t>
+          <t>XXC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Prof U</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>XXR</t>
+          <t>XXGT</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Prof AN</t>
+          <t>Prof P</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1126,23 +1126,23 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>XXCE</t>
+          <t>XXIA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Prof AV</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+          <t>Prof AD, Prof I, Prof G, Prof H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>2</v>
+      </c>
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1151,23 +1151,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>XXBJ</t>
+          <t>XXOE</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Prof A</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+          <t>Prof T, Prof N, Prof W, Prof C</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
       <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1181,16 +1181,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>XXBN</t>
+          <t>XXOX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Prof P</t>
+          <t>Prof AB</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1206,18 +1206,18 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>XXBD</t>
+          <t>XXII</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Prof AC, Prof AX, Prof AD, Prof G</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof A</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1226,17 +1226,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>XXX</t>
+          <t>XXNN</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Prof K</t>
+          <t>Prof E</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1251,21 +1251,21 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>XXAV</t>
+          <t>XXLS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Prof AL</t>
+          <t>Prof A</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
@@ -1276,21 +1276,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>XXBK</t>
+          <t>XXAQ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Prof AC</t>
+          <t>Prof N</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -1301,23 +1301,23 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>XXAR</t>
+          <t>XXQJ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Prof AR</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>3</v>
-      </c>
-      <c r="F35" t="inlineStr"/>
+          <t>Prof L, Prof F, Prof K, Prof AD</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
       <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1326,23 +1326,23 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sec F</t>
+          <t>Sec E</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>XXAK</t>
+          <t>XXQV</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Prof I</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>Prof Q, Prof K, Prof N, Prof O</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
       <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1356,18 +1356,18 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>XXBP</t>
+          <t>XXEH</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Prof O, Prof Y, Prof V, Prof AX</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof AB</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>4</v>
+      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>XXBU</t>
+          <t>XXOM</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Prof R</t>
+          <t>Prof L</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1401,21 +1401,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>XXBF</t>
+          <t>XXBA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Prof A</t>
+          <t>Prof Q</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -1426,17 +1426,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>XXI</t>
+          <t>XXAC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Prof AK</t>
+          <t>Prof S</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1451,21 +1451,21 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XXAI</t>
+          <t>XXAW</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Prof F</t>
+          <t>Prof E</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
@@ -1476,23 +1476,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>XXD</t>
+          <t>XXKU</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Prof AE</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>4</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+          <t>Prof Q, Prof K, Prof A, Prof AB</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
       <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sec G</t>
+          <t>Sec F</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>XXQ</t>
+          <t>XXOK</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Prof Q, Prof AK, Prof L, Prof O</t>
+          <t>Prof M, Prof R, Prof X, Prof K</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>XXCG</t>
+          <t>XXAX</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Prof AP</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1551,21 +1551,21 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>XXA</t>
+          <t>XXMG</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Prof P</t>
+          <t>Prof S</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
@@ -1576,21 +1576,21 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>XXP</t>
+          <t>XXEB</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Prof AE</t>
+          <t>Prof X</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -1601,17 +1601,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>XXT</t>
+          <t>XXHU</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Prof T</t>
+          <t>Prof AB</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1626,21 +1626,21 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>XXBM</t>
+          <t>XXMV</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Prof O</t>
+          <t>Prof C</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>XXAA</t>
+          <t>XXLF</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Prof AU, Prof N, Prof A, Prof AF</t>
+          <t>Prof U, Prof W, Prof G, Prof E</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -1676,23 +1676,23 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec G</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XXBE</t>
+          <t>XXJH</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Prof J</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>3</v>
-      </c>
-      <c r="F50" t="inlineStr"/>
+          <t>Prof AD, Prof S, Prof Y, Prof I</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="n">
+        <v>2</v>
+      </c>
       <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>XXAG</t>
+          <t>XXCV</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Prof AJ</t>
+          <t>Prof Y</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1726,21 +1726,21 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>XXCJ</t>
+          <t>XXOT</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Prof C</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
@@ -1751,21 +1751,21 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>XXCB</t>
+          <t>XXOD</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Prof AN</t>
+          <t>Prof AA</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
@@ -1776,21 +1776,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XXBQ</t>
+          <t>XXRX</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Prof U</t>
+          <t>Prof AA</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
@@ -1801,23 +1801,23 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Sec I</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XXY</t>
+          <t>XXBG</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Prof AC, Prof X, Prof AA, Prof AQ</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof S</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1826,23 +1826,23 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XXCF</t>
+          <t>XXGF</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Prof AG</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="inlineStr"/>
+          <t>Prof AC, Prof T, Prof I, Prof Q</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="n">
+        <v>2</v>
+      </c>
       <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -1851,23 +1851,23 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec H</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>XXBR</t>
+          <t>XXCB</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Prof AI</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>3</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+          <t>Prof R, Prof A, Prof J, Prof K</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>2</v>
+      </c>
       <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -1876,17 +1876,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>XXAU</t>
+          <t>XXKF</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Prof T</t>
+          <t>Prof AC</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>XXBL</t>
+          <t>XXZ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Prof H</t>
+          <t>Prof T</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1926,17 +1926,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>XXU</t>
+          <t>XXJQ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Prof L</t>
+          <t>Prof V</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -1951,23 +1951,23 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Sec J</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>XXBB</t>
+          <t>XXEQ</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Prof AX, Prof AI, Prof C, Prof F</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof M</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -1976,17 +1976,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Sec H</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>XXCK</t>
+          <t>XXRP</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Prof D</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2001,23 +2001,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Sec B</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>XXAD</t>
+          <t>XXLY</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Prof V</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="inlineStr"/>
+          <t>Prof J, Prof B, Prof F, Prof L</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="n">
+        <v>2</v>
+      </c>
       <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2026,23 +2026,23 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec I</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>XXAW</t>
+          <t>XXOG</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Prof AT</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>2</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+          <t>Prof I, Prof Y, Prof AA, Prof H</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>2</v>
+      </c>
       <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2051,23 +2051,23 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Sec E</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XXG</t>
+          <t>XXNP</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Prof AW</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof M</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2076,21 +2076,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sec D, Sec A</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>XXAJ</t>
+          <t>XXAM</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Prof AF, Prof Z</t>
+          <t>Prof J</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
@@ -2101,23 +2101,23 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Sec D, Sec A</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>XXBW</t>
+          <t>XXBR</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Prof AP, Prof AM</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2126,21 +2126,21 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Sec F, Sec C</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>XXBV</t>
+          <t>XXV</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Prof L, Prof I</t>
+          <t>Prof Y</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
@@ -2156,12 +2156,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>XXBX</t>
+          <t>XXJS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Prof T</t>
+          <t>Prof Q</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>XXE</t>
+          <t>XXPW</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Prof AT</t>
+          <t>Prof O, Prof H, Prof F, Prof M</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -2201,23 +2201,23 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sec G, Sec I</t>
+          <t>Sec J</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>XXC</t>
+          <t>XXMP</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Prof K, Prof C</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>2</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
+          <t>Prof Z, Prof U, Prof B, Prof R</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="n">
+        <v>2</v>
+      </c>
       <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2226,20 +2226,339 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sec G, Sec H, Sec C, Sec E, Sec F, Sec I, Sec D, Sec J</t>
+          <t>Sec D</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>BLOCKED_71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+          <t>XXQR</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Prof AA</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>2</v>
+      </c>
       <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>(1, 7), (2, 2), (2, 7), (4, 8)</t>
+      <c r="G72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Sec C</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>XXJJ</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Prof Z</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Sec J, Sec G</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>XXKV</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Prof L, Prof O</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Sec J, Sec G</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>XXKZ</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Prof S, Prof G</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="n">
+        <v>2</v>
+      </c>
+      <c r="G75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sec E</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>XXMX</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Prof O</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>2</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Sec E</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>XXG</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Prof G</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="n">
+        <v>2</v>
+      </c>
+      <c r="G77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Sec B</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>XXOR</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Prof M</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Sec I, Sec H</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>XXJN</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Prof B, Prof U</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sec A, Sec F</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>XXGW</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Prof Y, Prof F</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sec A, Sec F</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>XXBO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Prof U, Prof Z</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>2</v>
+      </c>
+      <c r="G81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sec J, Sec H, Sec F, Sec B, Sec I, Sec A</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>BLOCKED_81</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>(5, 8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Sec C, Sec I, Sec J, Sec D, Sec E, Sec G</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>BLOCKED_82</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>(3, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Sec H, Sec F, Sec I, Sec J, Sec D, Sec B</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>BLOCKED_83</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>(4, 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Sec G, Sec D, Sec B, Sec A, Sec E, Sec C</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>BLOCKED_84</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>(1, 2)</t>
         </is>
       </c>
     </row>
